--- a/tools/src/main/resources/excel/event_supply.xlsx
+++ b/tools/src/main/resources/excel/event_supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IdeaProjects\antares\tools\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A3C612-F630-4C92-9C4D-AB9FAC10309D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7863347-4867-4CA4-8C8A-C91502ED6D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1095" windowWidth="19050" windowHeight="20505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33765" yWindow="3450" windowWidth="23415" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_supply" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>int_triple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,15 +474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +501,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -509,8 +524,11 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -529,8 +547,11 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -550,7 +571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -569,8 +590,11 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
+      <c r="G6">
+        <v>10001</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -588,6 +612,9 @@
       </c>
       <c r="F7" t="s">
         <v>16</v>
+      </c>
+      <c r="G7">
+        <v>10002</v>
       </c>
     </row>
   </sheetData>
